--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1107980.290957097</v>
+        <v>1100197.944136796</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13476767.25690909</v>
+        <v>12744834.49889432</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1759984.410099417</v>
+        <v>416855.1052283196</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10513324.36052305</v>
+        <v>11135282.32728643</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>57.81578986397375</v>
       </c>
       <c r="X2" t="n">
-        <v>201.66221878632</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -755,7 +755,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851069</v>
       </c>
       <c r="I3" t="n">
         <v>18.81721868247742</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>149.3991884271811</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -867,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>117.4014735002807</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75.45713216103701</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>111.4702381038692</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -961,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1068,10 +1068,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1104,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>53.42628131785005</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>58.28185552386351</v>
       </c>
     </row>
     <row r="8">
@@ -1138,10 +1138,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1150,7 +1150,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>58.99818337218108</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>108.9812949757285</v>
       </c>
     </row>
     <row r="9">
@@ -1293,25 +1293,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>72.08802744677264</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>6.823442705357947</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1378,19 +1378,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>48.02794782510933</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.9994691657081</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
-        <v>190.7165703189231</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>142.9824281355622</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1612,19 +1612,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>340.0042781278843</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.9994691657081</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
-        <v>190.7165703189231</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1779,13 +1779,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>94.57983363107952</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>74.56049207329603</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.930370072263</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="18">
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>107.4021082756238</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2058,19 +2058,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>158.6375170540255</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.154082144415</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2244,13 +2244,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>23.10998325717174</v>
       </c>
       <c r="E22" t="n">
-        <v>106.7599081028611</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2289,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2383,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2490,7 +2490,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>101.4278957699519</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>144.9604756260736</v>
       </c>
     </row>
     <row r="26">
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2614,7 +2614,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2718,13 +2718,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>22.49790304530281</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>44.7513807668926</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3003,16 +3003,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>101.4278957699512</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>65.31126771337257</v>
+        <v>107.4021082756239</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3438,7 +3438,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>60.11729550773637</v>
       </c>
       <c r="V37" t="n">
-        <v>159.0078029012306</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3562,7 +3562,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>2.607010073152018</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>201.4508817220952</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3723,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>108.5818395624451</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>142.3575218158227</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,10 +3963,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4194,16 +4194,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>24.53050593105396</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C2" t="n">
         <v>1976.204921733553</v>
@@ -4327,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>3325.605821609171</v>
+        <v>2366.344253709365</v>
       </c>
       <c r="X2" t="n">
-        <v>3121.906610713899</v>
+        <v>2366.344253709365</v>
       </c>
       <c r="Y2" t="n">
-        <v>2731.767278738087</v>
+        <v>1976.204921733553</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556937</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.64310427581</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609103</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635988</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686066</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>846.0716871064745</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>827.0643955080125</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>920.7416649986299</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201685</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695165</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507436</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547492</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341959</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577005</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66.51211643218343</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="C4" t="n">
-        <v>66.51211643218343</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="D4" t="n">
-        <v>66.51211643218343</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218343</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218343</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962289</v>
+        <v>2483.053685760608</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>2581.364540028279</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>2737.074383950636</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588484</v>
+        <v>2904.506865249834</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886959</v>
+        <v>3075.815702279681</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068856</v>
+        <v>3213.734051497871</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596443</v>
+        <v>3312.685054250629</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.887005818185</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R4" t="n">
-        <v>920.887005818185</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S4" t="n">
-        <v>729.2011216450114</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T4" t="n">
-        <v>729.2011216450114</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U4" t="n">
-        <v>610.6137746750309</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V4" t="n">
-        <v>355.929286469144</v>
+        <v>3070.921333403283</v>
       </c>
       <c r="W4" t="n">
-        <v>66.51211643218343</v>
+        <v>3070.921333403283</v>
       </c>
       <c r="X4" t="n">
-        <v>66.51211643218343</v>
+        <v>2842.931782505266</v>
       </c>
       <c r="Y4" t="n">
-        <v>66.51211643218343</v>
+        <v>2622.139203361736</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1232.150970528558</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="C5" t="n">
-        <v>1232.150970528558</v>
+        <v>1703.012869240227</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>1344.747170633477</v>
       </c>
       <c r="E5" t="n">
         <v>1232.150970528558</v>
@@ -4567,7 +4567,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4609,10 +4609,10 @@
         <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.509627919559</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943747</v>
+        <v>2071.975386180639</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4649,49 +4649,49 @@
         <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>675.2351809199101</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C7" t="n">
-        <v>675.2351809199101</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2351809199101</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
         <v>66.51211643218342</v>
@@ -4752,25 +4752,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>729.2011216450112</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>675.2351809199101</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U7" t="n">
-        <v>675.2351809199101</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V7" t="n">
-        <v>675.2351809199101</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W7" t="n">
-        <v>675.2351809199101</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X7" t="n">
-        <v>675.2351809199101</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y7" t="n">
-        <v>675.2351809199101</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1303.529887077737</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>934.5673701373257</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>934.5673701373257</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4816,40 +4816,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.09759726723</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2806.503472648865</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W8" t="n">
-        <v>2453.73481737875</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="X8" t="n">
-        <v>2080.269059117671</v>
+        <v>2841.849394875187</v>
       </c>
       <c r="Y8" t="n">
-        <v>1690.129727141859</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4859,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4916,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>313.9544330261738</v>
+        <v>920.887005818185</v>
       </c>
       <c r="C10" t="n">
-        <v>313.9544330261738</v>
+        <v>751.9508228902781</v>
       </c>
       <c r="D10" t="n">
-        <v>163.8377936138381</v>
+        <v>601.8341834779424</v>
       </c>
       <c r="E10" t="n">
-        <v>163.8377936138381</v>
+        <v>453.9210898955492</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>307.0311423976389</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>139.3283057723578</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>139.3283057723578</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372933</v>
@@ -4971,43 +4971,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V10" t="n">
-        <v>824.1641822066645</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W10" t="n">
-        <v>534.7470121697039</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X10" t="n">
-        <v>534.7470121697039</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y10" t="n">
-        <v>313.9544330261738</v>
+        <v>920.887005818185</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1295.236214140706</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>926.2736972002942</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>568.0079985935438</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>568.0079985935438</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>157.0220938039362</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>157.0220938039362</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810559</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520488</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794324</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>2424.744041450754</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>2071.975386180639</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>2071.975386180639</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>1681.836054204828</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>280.8495004245714</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158131</v>
+        <v>776.17510664033</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>920.8870058181849</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>920.8870058181849</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D13" t="n">
-        <v>770.7703664058491</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E13" t="n">
-        <v>622.857272823456</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>475.9673253255456</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>308.2644887002646</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>78.33486996962287</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>176.6457242372933</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>332.3555681596505</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
-        <v>499.7880494588483</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>671.0968864886958</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>809.0152357068855</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>907.9662384596442</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>920.8870058181849</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>920.8870058181849</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>920.8870058181849</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>920.8870058181849</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>920.8870058181849</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>920.8870058181849</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>920.8870058181849</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>920.8870058181849</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>920.8870058181849</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1491.569348694472</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1122.606831754061</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>779.1681669784198</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>779.1681669784198</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>779.1681669784198</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>364.0957168234162</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912088</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.605821609171</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>3325.605821609171</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>2994.5429342656</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>2641.774278995485</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>2268.308520734406</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>1878.169188758594</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031477</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158131</v>
+        <v>738.7889117913851</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1963.765362972543</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2515.67509321183</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>920.8870058181849</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C16" t="n">
-        <v>920.8870058181849</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D16" t="n">
-        <v>770.7703664058491</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E16" t="n">
-        <v>622.857272823456</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F16" t="n">
-        <v>475.9673253255456</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>308.2644887002646</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>162.0473019181223</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>78.33486996962287</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>176.6457242372933</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>332.3555681596505</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
-        <v>499.7880494588483</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>671.0968864886958</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>809.0152357068855</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>907.9662384596442</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>920.8870058181849</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>920.8870058181849</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>920.8870058181849</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>920.8870058181849</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U16" t="n">
-        <v>920.8870058181849</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V16" t="n">
-        <v>920.8870058181849</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W16" t="n">
-        <v>920.8870058181849</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X16" t="n">
-        <v>920.8870058181849</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y16" t="n">
-        <v>920.8870058181849</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615668</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334541</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.78353867329</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667834</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694719</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740627</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385793</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>2231.588527385793</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>2381.235169913448</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>2715.159942084669</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L18" t="n">
-        <v>3210.485548300428</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>3807.86403592698</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>3905.661761784425</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>4457.571492023712</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>4457.571492023712</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>4690.833152398595</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398595</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301208</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.415660022982</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566167</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334424</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.14661340069</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635736</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>202.3036411041575</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>140.7528025687997</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>296.7657364131323</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>526.3143760629337</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>771.5995144936172</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1018.909846477608</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>1227.02787748437</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>1386.046835377028</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>1440.555541309953</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>1440.555541309953</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>1440.555541309953</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>1440.555541309953</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U19" t="n">
-        <v>1440.555541309953</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V19" t="n">
-        <v>1440.555541309953</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W19" t="n">
-        <v>1440.555541309953</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X19" t="n">
-        <v>1440.555541309953</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362699</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332388</v>
@@ -5767,37 +5767,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245705</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L21" t="n">
         <v>776.1751066403293</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>520.7077764012056</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>351.7715934732987</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D22" t="n">
-        <v>201.654954060963</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E22" t="n">
-        <v>93.81666304797191</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>140.7528025687997</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>296.7657364131323</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>526.3143760629337</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>771.5995144936172</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1018.909846477608</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>1227.02787748437</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>1386.046835377028</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>1440.555541309953</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>1440.555541309953</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>1440.555541309953</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1440.555541309953</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1440.555541309953</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1440.555541309953</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1151.138371272993</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>923.1488203749755</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>702.3562412314453</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5983,22 +5983,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
@@ -6031,7 +6031,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4060.402557526807</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C25" t="n">
-        <v>3891.4663745989</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D25" t="n">
-        <v>3741.349735186564</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E25" t="n">
-        <v>3593.436641604171</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>3446.54669410626</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>3344.094274136612</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>3344.094274136612</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>3344.094274136612</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>3391.03041365744</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>3547.043347501773</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3776.591987151574</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>4021.877125582258</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>4269.187457566249</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4477.30548857301</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4636.324446465668</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>4690.833152398593</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>4690.833152398593</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U25" t="n">
-        <v>4690.833152398593</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V25" t="n">
-        <v>4690.833152398593</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W25" t="n">
-        <v>4690.833152398593</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X25" t="n">
-        <v>4462.843601500576</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y25" t="n">
-        <v>4242.051022357046</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="26">
@@ -6208,10 +6208,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
@@ -6220,55 +6220,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1344.266747951537</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>847.644273983533</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711973</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888042</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>140.7528025687997</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>296.7657364131323</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>526.3143760629337</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>771.5995144936172</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1018.909846477608</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>1227.02787748437</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>1386.046835377028</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>1440.555541309953</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>1440.555541309953</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>1440.555541309953</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1220.954076332895</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1220.954076332895</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1220.954076332895</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1220.954076332895</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1220.954076332895</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>1198.22892174168</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6451,37 +6451,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852255</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>707.672526468518</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C31" t="n">
-        <v>538.7363435406111</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6197041282753</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458822</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>140.7528025687996</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>296.7657364131322</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>526.3143760629334</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>771.5995144936169</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1018.909846477608</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>1227.027877484369</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>1386.046835377027</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>1440.555541309953</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>1440.555541309953</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>1440.555541309953</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>1440.555541309953</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U31" t="n">
-        <v>1440.555541309953</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V31" t="n">
-        <v>1440.555541309953</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W31" t="n">
-        <v>1338.103121340305</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X31" t="n">
-        <v>1110.113570442288</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y31" t="n">
-        <v>889.3209912987577</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="32">
@@ -6682,40 +6682,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,25 +6776,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>352.5519571452614</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>93.81666304797187</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C34" t="n">
-        <v>93.81666304797187</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D34" t="n">
-        <v>93.81666304797187</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E34" t="n">
-        <v>93.81666304797187</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
         <v>93.81666304797187</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>140.7528025687996</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>296.7657364131322</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>526.3143760629334</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>771.5995144936169</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1018.909846477608</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>1227.027877484369</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>1386.046835377027</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>1440.555541309953</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>1440.555541309953</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.584563821698</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="T34" t="n">
-        <v>1154.983098844639</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U34" t="n">
-        <v>865.9078721888367</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V34" t="n">
-        <v>611.2233839829498</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W34" t="n">
-        <v>321.8062139459892</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X34" t="n">
-        <v>93.81666304797187</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y34" t="n">
-        <v>93.81666304797187</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="35">
@@ -6928,10 +6928,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
@@ -6943,13 +6943,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,25 +7013,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>762.5348780504994</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C37" t="n">
-        <v>762.5348780504994</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D37" t="n">
-        <v>612.4182386381636</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
-        <v>464.5051450557705</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
         <v>317.6151975578602</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>140.7528025687996</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>296.7657364131322</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>526.3143760629334</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>771.5995144936169</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1018.909846477608</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>1227.027877484369</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>1386.046835377027</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>1440.555541309953</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>1440.555541309953</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>1440.555541309953</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1440.555541309953</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1440.555541309953</v>
+        <v>1983.7822433412</v>
       </c>
       <c r="V37" t="n">
-        <v>1279.941598985477</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W37" t="n">
-        <v>990.5244289485167</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X37" t="n">
-        <v>762.5348780504994</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5348780504994</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="38">
@@ -7168,28 +7168,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>175.9033664000583</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C40" t="n">
-        <v>175.9033664000583</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D40" t="n">
-        <v>175.9033664000583</v>
+        <v>634.334587849125</v>
       </c>
       <c r="E40" t="n">
-        <v>175.9033664000583</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000583</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>140.7528025687996</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>296.7657364131322</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>526.3143760629334</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>771.5995144936169</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1018.909846477608</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>1227.027877484369</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>1386.046835377027</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>1440.555541309953</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>1440.555541309953</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>1440.555541309953</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1237.069802196725</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>947.9945755409232</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>693.3100873350363</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>403.8929172980756</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X40" t="n">
-        <v>175.9033664000583</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y40" t="n">
-        <v>175.9033664000583</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7420,10 +7420,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7432,31 +7432,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7484,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2530.951795518647</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>427.2938233785118</v>
+        <v>948.5505208511905</v>
       </c>
       <c r="C43" t="n">
-        <v>427.2938233785118</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D43" t="n">
-        <v>427.2938233785118</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E43" t="n">
-        <v>427.2938233785118</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F43" t="n">
-        <v>427.2938233785118</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>140.7528025687996</v>
+        <v>174.052681478291</v>
       </c>
       <c r="K43" t="n">
-        <v>296.7657364131322</v>
+        <v>435.7419440038296</v>
       </c>
       <c r="L43" t="n">
-        <v>526.3143760629334</v>
+        <v>826.1405381797697</v>
       </c>
       <c r="M43" t="n">
-        <v>771.5995144936169</v>
+        <v>1248.150240910804</v>
       </c>
       <c r="N43" t="n">
-        <v>1018.909846477608</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O43" t="n">
-        <v>1227.027877484369</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P43" t="n">
-        <v>1386.046835377027</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q43" t="n">
-        <v>1440.555541309953</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R43" t="n">
-        <v>1373.509837562355</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S43" t="n">
-        <v>1190.65500321726</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T43" t="n">
-        <v>971.0535382402009</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U43" t="n">
-        <v>681.9783115843986</v>
+        <v>1833.665603928865</v>
       </c>
       <c r="V43" t="n">
-        <v>427.2938233785118</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="W43" t="n">
-        <v>427.2938233785118</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="X43" t="n">
-        <v>427.2938233785118</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y43" t="n">
-        <v>427.2938233785118</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="44">
@@ -7651,19 +7651,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7739,13 +7739,13 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2223.769289033212</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>550.637687073287</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>550.637687073287</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>140.7528025687996</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>296.7657364131322</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>526.3143760629334</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>771.5995144936169</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1018.909846477608</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>1227.027877484369</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>1386.046835377027</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>1440.555541309953</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>1373.509837562355</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>1373.509837562355</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1153.908372585296</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>864.8331459294941</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>864.8331459294941</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>575.4159758925334</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>550.637687073287</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>550.637687073287</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9795,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -10032,28 +10032,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10506,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23266,16 +23266,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>246.5798165622111</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>41.54258064659096</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1.772586778758551</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23500,13 +23500,13 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>14.67876349279862</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1.772586778758566</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>151.1491633157411</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="18">
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>32.89260457060008</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -23946,19 +23946,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>59.94713629806932</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24132,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>125.5054897610406</v>
       </c>
       <c r="E22" t="n">
-        <v>39.67405454370802</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -24147,7 +24147,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>64.09624252231691</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>73.62417772602114</v>
       </c>
     </row>
     <row r="26">
@@ -24606,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>136.2749052347519</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>196.086750306792</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>101.6825818796766</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24891,16 +24891,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>185.0951025666398</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -25125,10 +25125,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>115.715018288272</v>
+        <v>73.62417772602069</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25362,25 +25362,25 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>226.0671788815078</v>
       </c>
       <c r="V37" t="n">
-        <v>93.1298404225974</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>143.8269525734171</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>15.95456860519303</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>56.94229872982379</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>143.8269525734214</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,16 +26082,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>201.1791494579832</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>773246.2968165617</v>
+        <v>962425.9658310405</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>773246.2968165616</v>
+        <v>962425.9658310405</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>920300.3688706553</v>
+        <v>962425.9658310406</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>920300.3688706552</v>
+        <v>962425.9658310405</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>920300.3688706553</v>
+        <v>962425.9658310406</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>920300.3688706553</v>
+        <v>962425.9658310405</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>920300.3688706552</v>
+        <v>962425.9658310406</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>920300.3688706551</v>
+        <v>962425.9658310406</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>920300.3688706553</v>
+        <v>962425.9658310408</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>920300.3688706551</v>
+        <v>962425.9658310406</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>920300.3688706552</v>
+        <v>962425.9658310405</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>920300.3688706552</v>
+        <v>962425.9658310405</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>472099.0176719631</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.0176719632</v>
+        <v>472099.0176719631</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.0176719631</v>
+        <v>472099.017671963</v>
       </c>
       <c r="E2" t="n">
-        <v>378397.123974062</v>
+        <v>464109.2948217535</v>
       </c>
       <c r="F2" t="n">
-        <v>378397.1239740619</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="G2" t="n">
-        <v>450359.7549792567</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="H2" t="n">
-        <v>450359.7549792567</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="I2" t="n">
-        <v>450359.7549792567</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="J2" t="n">
-        <v>450359.7549792568</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="K2" t="n">
-        <v>450359.7549792567</v>
+        <v>464109.2948217538</v>
       </c>
       <c r="L2" t="n">
-        <v>450359.7549792565</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="M2" t="n">
-        <v>450359.7549792567</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="N2" t="n">
-        <v>450359.7549792566</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="O2" t="n">
-        <v>450359.7549792568</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="P2" t="n">
-        <v>450359.7549792567</v>
+        <v>464109.2948217537</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>325412.4618073548</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>309843.0334598204</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>82135.83059545147</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.7441040525</v>
+        <v>93596.7441040526</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405256</v>
       </c>
       <c r="D4" t="n">
         <v>93596.74410405252</v>
       </c>
       <c r="E4" t="n">
-        <v>584.6469890061231</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="F4" t="n">
-        <v>584.6469890061231</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="G4" t="n">
-        <v>761.3882086835454</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="H4" t="n">
-        <v>761.3882086835454</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="I4" t="n">
-        <v>761.3882086835454</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="J4" t="n">
-        <v>761.3882086835454</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="K4" t="n">
-        <v>761.3882086835451</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="L4" t="n">
-        <v>761.3882086835451</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="M4" t="n">
-        <v>761.3882086835451</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="N4" t="n">
-        <v>761.3882086835451</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="O4" t="n">
-        <v>761.3882086835451</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="P4" t="n">
-        <v>761.3882086835451</v>
+        <v>14826.69604186736</v>
       </c>
     </row>
     <row r="5">
@@ -26478,13 +26478,13 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.3405613933</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-1058176.412721075</v>
       </c>
       <c r="C6" t="n">
-        <v>270568.3330065174</v>
+        <v>270568.3330065173</v>
       </c>
       <c r="D6" t="n">
         <v>270568.3330065173</v>
       </c>
       <c r="E6" t="n">
-        <v>303506.1364236626</v>
+        <v>22400.22789426731</v>
       </c>
       <c r="F6" t="n">
-        <v>303506.1364236625</v>
+        <v>347812.6897016222</v>
       </c>
       <c r="G6" t="n">
-        <v>38632.80348684557</v>
+        <v>347812.689701622</v>
       </c>
       <c r="H6" t="n">
-        <v>348475.8369466662</v>
+        <v>347812.6897016221</v>
       </c>
       <c r="I6" t="n">
-        <v>348475.8369466661</v>
+        <v>347812.6897016222</v>
       </c>
       <c r="J6" t="n">
-        <v>130944.6345493885</v>
+        <v>130281.4873043449</v>
       </c>
       <c r="K6" t="n">
-        <v>348475.8369466662</v>
+        <v>347812.6897016224</v>
       </c>
       <c r="L6" t="n">
-        <v>348475.8369466658</v>
+        <v>347812.6897016222</v>
       </c>
       <c r="M6" t="n">
-        <v>348475.836946666</v>
+        <v>262757.6617661105</v>
       </c>
       <c r="N6" t="n">
-        <v>348475.8369466659</v>
+        <v>347812.6897016222</v>
       </c>
       <c r="O6" t="n">
-        <v>266340.0063512147</v>
+        <v>347812.6897016224</v>
       </c>
       <c r="P6" t="n">
-        <v>348475.8369466661</v>
+        <v>347812.6897016222</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26789,31 +26789,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>278.1987997483759</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>341.3068326973562</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>341.3068326973562</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>341.3068326973562</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>291.4251788534393</v>
       </c>
       <c r="X2" t="n">
-        <v>168.0688818921491</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>30.43279175475621</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27587,25 +27587,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>168.8103647053321</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>307.2767095024436</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>270.4601319683926</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27788,10 +27788,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27824,10 +27824,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>166.1226679583191</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>160.3027978282313</v>
       </c>
     </row>
     <row r="8">
@@ -27858,10 +27858,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>268.7540750979538</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>277.2566436803251</v>
       </c>
     </row>
     <row r="9">
@@ -28013,25 +28013,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>24.26439296306545</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28070,16 +28070,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>245.3142006184701</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -30474,7 +30474,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30641,7 +30641,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>-4.713266813875332e-12</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -31615,7 +31615,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
         <v>557.708647897025</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>175.6052721551114</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>138.937596729739</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353155</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>171.7382405950826</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
-        <v>138.937596729739</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32317,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422587</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>230.1272937575203</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,19 +32554,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>175.6052721551104</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>164.9290651940687</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>416.4300581532619</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33207,7 +33207,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33259,13 +33259,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33496,16 +33496,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>248.0319961154043</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33514,10 +33514,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33733,16 +33733,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33751,10 +33751,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33970,31 +33970,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34137,7 +34137,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
         <v>965.6463440175675</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34225,16 +34225,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>168.0123247135882</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34459,16 +34459,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>230.9747494877451</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -35263,7 +35263,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
         <v>415.1124034525806</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>37.76383318075244</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>11.94217529034289</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>99.30389319966704</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>157.2826706286437</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>169.1237184840382</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>173.0392293230783</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>139.3114638567573</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>99.95050783106933</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>13.0512801601422</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609565</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>37.76383318075232</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>11.94217529034289</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
-        <v>99.30389319966704</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>157.2826706286437</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>169.1237184840382</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>173.0392293230783</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>139.3114638567573</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>99.95050783106933</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>13.0512801601422</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678997</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>98.785581674187</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>47.41024194023011</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>157.5888220649825</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>231.8673127775771</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>247.7627660915996</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>249.8084161454457</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>210.2202333401631</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>160.6252099925839</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>55.05929892214695</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,19 +36202,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>37.7638331807514</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>47.41024194023008</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>157.5888220649825</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>231.8673127775771</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>247.7627660915995</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>249.8084161454457</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>210.220233340163</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>160.6252099925839</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>55.05929892214692</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,22 +36442,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>22.33282074962425</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>47.41024194023008</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>157.5888220649825</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>231.8673127775771</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>247.7627660915995</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>249.8084161454457</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>210.220233340163</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>160.6252099925839</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>55.05929892214692</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,22 +36679,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>274.2960242312436</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>47.41024194023008</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>157.5888220649825</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>231.8673127775771</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>247.7627660915995</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>249.8084161454457</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>210.220233340163</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>160.6252099925839</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>55.05929892214692</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>47.41024194023002</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>157.5888220649824</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>231.867312777577</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>247.7627660915995</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>249.8084161454456</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>210.220233340163</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>160.6252099925838</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.05929892214689</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>110.1905571410453</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,10 +37162,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>47.41024194023002</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>157.5888220649824</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>231.867312777577</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>247.7627660915995</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>249.8084161454456</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>210.220233340163</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>160.6252099925838</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>55.05929892214689</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,10 +37399,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>47.41024194023002</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>157.5888220649824</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>231.867312777577</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>247.7627660915995</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>249.8084161454456</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>210.220233340163</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>160.6252099925838</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>55.05929892214689</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>47.41024194023002</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>157.5888220649824</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>231.867312777577</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>247.7627660915995</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>249.8084161454456</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>210.220233340163</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>160.6252099925838</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>55.05929892214689</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37785,7 +37785,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
         <v>735.3001107902948</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37873,16 +37873,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>22.33282074962425</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>47.41024194023002</v>
+        <v>81.04648326294864</v>
       </c>
       <c r="K43" t="n">
-        <v>157.5888220649824</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>231.867312777577</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>247.7627660915995</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>249.8084161454456</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>210.220233340163</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>160.6252099925838</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>55.05929892214689</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38107,16 +38107,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>97.00034207341486</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>47.41024194023002</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>157.5888220649824</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>231.867312777577</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>247.7627660915995</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>249.8084161454456</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>210.220233340163</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
-        <v>160.6252099925838</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>55.05929892214689</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1100197.944136796</v>
+        <v>1104794.366897286</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12744834.49889432</v>
+        <v>13476767.25690909</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283196</v>
+        <v>1759984.41009942</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11135282.32728643</v>
+        <v>10513324.36052305</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>79.91496114853747</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -721,7 +721,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>57.81578986397375</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851069</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
         <v>18.81721868247742</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>149.3991884271811</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -825,19 +825,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>23.64635737312274</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>111.4702381038692</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,10 +949,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -961,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>186.6711094088629</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1034,7 +1034,7 @@
         <v>225.7871683969286</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>232.8005871494241</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>72.08802744677224</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>58.28185552386351</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>181.9348232923723</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>108.9812949757285</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>58.28185552386314</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>72.08802744677264</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>61.81997686048906</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.4010792945512</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
-        <v>188.3046392154443</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,13 +1536,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>104.8913819999782</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>115.0138334144179</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>378.9524249664332</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1621,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881275</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.4010792945512</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364134</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
-        <v>188.3046392154443</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>115.324993545396</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>74.56049207329603</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>51.04722446792864</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>107.4021082756238</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2134,7 +2134,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>23.10998325717174</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2289,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>218.9920672476486</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2371,7 +2371,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>72.43626975031484</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>144.9604756260736</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2566,13 +2566,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>9.146142788179368</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2775,13 +2775,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>90.69878429886333</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>44.7513807668926</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>109.9946371007651</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>107.4021082756239</v>
+        <v>65.31126771337257</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3438,10 +3438,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>60.11729550773637</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>65.68044793870511</v>
       </c>
     </row>
     <row r="38">
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3562,7 +3562,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>2.607010073152018</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>104.0942093908505</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3751,10 +3751,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>65.31126771337257</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>142.3575218158227</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>65.31126771337257</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1976.204921733553</v>
+        <v>1917.382287315189</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1548.419770374778</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4354,28 +4354,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3244.88363863085</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2991.353161904686</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2660.290274561115</v>
       </c>
       <c r="W2" t="n">
-        <v>2366.344253709365</v>
+        <v>2307.521619291001</v>
       </c>
       <c r="X2" t="n">
-        <v>2366.344253709365</v>
+        <v>2307.521619291001</v>
       </c>
       <c r="Y2" t="n">
-        <v>1976.204921733553</v>
+        <v>1917.382287315189</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556937</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609103</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635988</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686066</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064745</v>
+        <v>85.51940803064582</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080125</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986299</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547492</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341959</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577005</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2471.230932223169</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="C4" t="n">
-        <v>2471.230932223169</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="D4" t="n">
-        <v>2471.230932223169</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="E4" t="n">
-        <v>2471.230932223169</v>
+        <v>551.2072968053178</v>
       </c>
       <c r="F4" t="n">
-        <v>2471.230932223169</v>
+        <v>404.3173493074074</v>
       </c>
       <c r="G4" t="n">
-        <v>2471.230932223169</v>
+        <v>236.6145126821264</v>
       </c>
       <c r="H4" t="n">
-        <v>2471.230932223169</v>
+        <v>90.39732589998417</v>
       </c>
       <c r="I4" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>2483.053685760608</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K4" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>2737.074383950636</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>3075.815702279681</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>3213.734051497871</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>3312.685054250629</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>3325.60582160917</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U4" t="n">
-        <v>3325.60582160917</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="V4" t="n">
-        <v>3070.921333403283</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="W4" t="n">
-        <v>3070.921333403283</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="X4" t="n">
-        <v>2842.931782505266</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="Y4" t="n">
-        <v>2622.139203361736</v>
+        <v>699.1203903877109</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2071.975386180639</v>
+        <v>1582.86133602681</v>
       </c>
       <c r="C5" t="n">
-        <v>1703.012869240227</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="D5" t="n">
-        <v>1344.747170633477</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
         <v>821.1650657389509</v>
@@ -4567,19 +4567,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X5" t="n">
-        <v>2071.975386180639</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="Y5" t="n">
-        <v>2071.975386180639</v>
+        <v>1969.461176090932</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>680.3679798527295</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>511.4317969248226</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>361.3151575124869</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
         <v>66.51211643218342</v>
@@ -4725,52 +4725,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y7" t="n">
-        <v>862.0164446829692</v>
+        <v>920.8870058181845</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1197.506131441393</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>828.543614500981</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>470.2779158942305</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>84.48966329598633</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>77.54416254678286</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>3031.542604356091</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136266</v>
+        <v>2700.47971701252</v>
       </c>
       <c r="W8" t="n">
-        <v>3215.315153136266</v>
+        <v>2347.711061742406</v>
       </c>
       <c r="X8" t="n">
-        <v>2841.849394875187</v>
+        <v>1974.245303481326</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>1584.105971505514</v>
       </c>
     </row>
     <row r="9">
@@ -4859,43 +4859,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4916,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>920.887005818185</v>
+        <v>739.2385409879448</v>
       </c>
       <c r="C10" t="n">
-        <v>751.9508228902781</v>
+        <v>570.3023580600379</v>
       </c>
       <c r="D10" t="n">
-        <v>601.8341834779424</v>
+        <v>420.1857186477022</v>
       </c>
       <c r="E10" t="n">
-        <v>453.9210898955492</v>
+        <v>272.2726250653091</v>
       </c>
       <c r="F10" t="n">
-        <v>307.0311423976389</v>
+        <v>125.3826775673987</v>
       </c>
       <c r="G10" t="n">
-        <v>139.3283057723578</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>139.3283057723578</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962283</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>1638.360256348808</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1269.397739408397</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1269.397739408397</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>883.6094868101522</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192592</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>2788.565186649821</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>2788.565186649821</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>2415.099428388742</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2024.96009641293</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>943.3991132778466</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>768.9460839967196</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>620.0116743354683</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568978</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028057</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245714</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L12" t="n">
-        <v>776.17510664033</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266882</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2553.061288060775</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2244.643795685161</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2016.615714228345</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1781.463605996603</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1527.226249268401</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1319.374749062868</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1111.614450297915</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400712</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D13" t="n">
-        <v>513.8536007400712</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797186</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>499.7880494588479</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>671.0968864886953</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>809.0152357068849</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>907.9662384596435</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>804.7114165106914</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>804.7114165106914</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>804.7114165106914</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>804.7114165106914</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>515.2942464737308</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>2051.278283189672</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>1661.13895121386</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>943.3991132778466</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>768.9460839967196</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>620.0116743354683</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568978</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028057</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756265</v>
+        <v>398.4535849031491</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913851</v>
+        <v>765.1517452158142</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N15" t="n">
-        <v>1963.765362972543</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2515.67509321183</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2553.061288060775</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2244.643795685161</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2016.615714228345</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1781.463605996603</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1527.226249268401</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1319.374749062868</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1111.614450297915</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>849.3843576263199</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="C16" t="n">
-        <v>680.448174698413</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D16" t="n">
-        <v>530.3315352860773</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E16" t="n">
-        <v>382.4184417036842</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>78.33486996962279</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>499.7880494588479</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>671.0968864886953</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>809.0152357068849</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>907.9662384596435</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>631.7841389438278</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.556199993915</v>
+        <v>631.7841389438278</v>
       </c>
       <c r="W16" t="n">
-        <v>1327.139029956954</v>
+        <v>631.7841389438278</v>
       </c>
       <c r="X16" t="n">
-        <v>1251.82540160009</v>
+        <v>403.7945880458104</v>
       </c>
       <c r="Y16" t="n">
-        <v>1031.03282245656</v>
+        <v>183.0020089022803</v>
       </c>
     </row>
     <row r="17">
@@ -5512,16 +5512,16 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
@@ -5530,10 +5530,10 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852254</v>
@@ -5542,22 +5542,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5597,16 +5597,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>983.3556038098237</v>
+        <v>607.3786564113032</v>
       </c>
       <c r="C19" t="n">
-        <v>814.4194208819168</v>
+        <v>607.3786564113032</v>
       </c>
       <c r="D19" t="n">
-        <v>664.3027814695811</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>516.389687887188</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>369.4997403892776</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>202.3036411041575</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797186</v>
@@ -5673,52 +5673,52 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1018.909846477608</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="T19" t="n">
-        <v>2446.96308358026</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="U19" t="n">
-        <v>2157.887856924458</v>
+        <v>1151.480314654151</v>
       </c>
       <c r="V19" t="n">
-        <v>1903.203368718571</v>
+        <v>896.7958264482637</v>
       </c>
       <c r="W19" t="n">
-        <v>1613.786198681611</v>
+        <v>607.3786564113032</v>
       </c>
       <c r="X19" t="n">
-        <v>1385.796647783593</v>
+        <v>607.3786564113032</v>
       </c>
       <c r="Y19" t="n">
-        <v>1165.004068640063</v>
+        <v>607.3786564113032</v>
       </c>
     </row>
     <row r="20">
@@ -5746,25 +5746,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5773,13 +5773,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
@@ -5825,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245706</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876688</v>
+        <v>412.8694853882145</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597619</v>
+        <v>243.9333024603076</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6197041282753</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458822</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1018.909846477608</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1151.480314654151</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>930.2762063231924</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>640.8590362862318</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>412.8694853882145</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>412.8694853882145</v>
       </c>
     </row>
     <row r="23">
@@ -5983,16 +5983,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6010,13 +6010,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474784</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6062,28 +6062,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>166.9846122907141</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>166.9846122907141</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>166.9846122907141</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>166.9846122907141</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>166.9846122907141</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1018.909846477608</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="T25" t="n">
-        <v>2264.108249235165</v>
+        <v>1220.954076332894</v>
       </c>
       <c r="U25" t="n">
-        <v>1975.033022579363</v>
+        <v>931.8788496770917</v>
       </c>
       <c r="V25" t="n">
-        <v>1720.348534373476</v>
+        <v>677.1943614712048</v>
       </c>
       <c r="W25" t="n">
-        <v>1430.931364336515</v>
+        <v>387.7771914342442</v>
       </c>
       <c r="X25" t="n">
-        <v>1202.941813438498</v>
+        <v>387.7771914342442</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.517090583878</v>
+        <v>166.9846122907141</v>
       </c>
     </row>
     <row r="26">
@@ -6214,16 +6214,16 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6232,13 +6232,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6320,7 +6320,7 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
         <v>402.7245934908939</v>
@@ -6384,52 +6384,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1018.909846477608</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>1257.700706964857</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1038.099241987798</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>749.0240153319962</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>494.3395271261094</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>402.7245934908939</v>
       </c>
     </row>
     <row r="29">
@@ -6451,40 +6451,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>763.7541388327643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="C31" t="n">
-        <v>594.8179559048574</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="D31" t="n">
-        <v>594.8179559048574</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1018.909846477608</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>1257.700706964857</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>1038.099241987798</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>749.0240153319962</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741512</v>
+        <v>494.3395271261094</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704551</v>
+        <v>204.9223570891488</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806534</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.402603663004</v>
+        <v>93.81666304797187</v>
       </c>
     </row>
     <row r="32">
@@ -6682,46 +6682,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>874.8686257536381</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257312</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1018.909846477608</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S34" t="n">
-        <v>2338.476105524075</v>
+        <v>1374.584563821698</v>
       </c>
       <c r="T34" t="n">
-        <v>2338.476105524075</v>
+        <v>1154.983098844639</v>
       </c>
       <c r="U34" t="n">
-        <v>2049.400878868273</v>
+        <v>865.9078721888367</v>
       </c>
       <c r="V34" t="n">
-        <v>1794.716390662386</v>
+        <v>611.2233839829498</v>
       </c>
       <c r="W34" t="n">
-        <v>1505.299220625425</v>
+        <v>321.8062139459892</v>
       </c>
       <c r="X34" t="n">
-        <v>1277.309669727408</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="Y34" t="n">
-        <v>1056.517090583878</v>
+        <v>93.81666304797186</v>
       </c>
     </row>
     <row r="35">
@@ -6913,31 +6913,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6946,10 +6946,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6958,31 +6958,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1018.909846477608</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>1373.509837562355</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>1373.509837562355</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1373.509837562355</v>
       </c>
       <c r="U37" t="n">
-        <v>1983.7822433412</v>
+        <v>1373.509837562355</v>
       </c>
       <c r="V37" t="n">
-        <v>1729.097755135313</v>
+        <v>1373.509837562355</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1084.092667525395</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>856.1031166273772</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>789.7592298206043</v>
       </c>
     </row>
     <row r="38">
@@ -7156,28 +7156,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>803.2707707770319</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="C40" t="n">
-        <v>634.334587849125</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="D40" t="n">
-        <v>634.334587849125</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1018.909846477608</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>1373.509837562355</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>1190.65500321726</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>971.0535382402009</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>865.9078721888367</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>611.2233839829498</v>
       </c>
       <c r="W40" t="n">
-        <v>1433.701365648819</v>
+        <v>321.8062139459892</v>
       </c>
       <c r="X40" t="n">
-        <v>1205.711814750802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="Y40" t="n">
-        <v>984.9192356072716</v>
+        <v>93.81666304797187</v>
       </c>
     </row>
     <row r="41">
@@ -7399,7 +7399,7 @@
         <v>1204.759558406467</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7408,16 +7408,16 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
@@ -7426,10 +7426,10 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852254</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>948.5505208511905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="C43" t="n">
-        <v>779.6143379232836</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>174.052681478291</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038296</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797697</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910804</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570813</v>
+        <v>1018.909846477608</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279798</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853356</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580256</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832658</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487563</v>
+        <v>1374.584563821698</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510504</v>
+        <v>1154.983098844639</v>
       </c>
       <c r="U43" t="n">
-        <v>1833.665603928865</v>
+        <v>865.9078721888367</v>
       </c>
       <c r="V43" t="n">
-        <v>1578.981115722978</v>
+        <v>611.2233839829498</v>
       </c>
       <c r="W43" t="n">
-        <v>1578.981115722978</v>
+        <v>321.8062139459892</v>
       </c>
       <c r="X43" t="n">
-        <v>1350.99156482496</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="Y43" t="n">
-        <v>1130.19898568143</v>
+        <v>93.81666304797186</v>
       </c>
     </row>
     <row r="44">
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="D46" t="n">
-        <v>194.8007783998286</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="E46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1018.909846477608</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>1374.584563821698</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1154.983098844639</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>865.9078721888367</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>611.2233839829498</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>321.8062139459892</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>93.81666304797187</v>
       </c>
     </row>
   </sheetData>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>171.8177168444618</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>171.8177168444618</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>171.8177168444618</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>171.8177168444618</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9795,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>171.8177168444618</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -10032,28 +10032,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>171.8177168444618</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>171.8177168444618</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10506,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>171.8177168444618</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>171.8177168444618</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>171.8177168444618</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>171.8177168444618</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>171.8177168444618</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>345.0560688812224</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23308,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23424,19 +23424,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>41.54258064659096</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>74.75519191702404</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>3.781416697047348</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23551,13 +23551,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>64.50698663654134</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>151.1491633157411</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>97.56824855028371</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>32.89260457060008</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>125.5054897610406</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -24177,16 +24177,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>33.1455760761794</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>93.08786854195401</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24414,10 +24414,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.62417772602114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24612,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>136.2749052347519</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>195.8242140377277</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>101.6825818796766</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24888,7 +24888,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>115.715018288272</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -25125,10 +25125,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>73.62417772602069</v>
+        <v>115.715018288272</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25326,10 +25326,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>226.0671788815078</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>152.9042054133897</v>
       </c>
     </row>
     <row r="38">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>143.8269525734171</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,19 +25605,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>182.0902649983936</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25639,7 +25639,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>115.715018288272</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>143.8269525734214</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>46.45968844823102</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>115.715018288272</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>962425.9658310405</v>
+        <v>773246.2968165615</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>962425.9658310405</v>
+        <v>773246.2968165614</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>962425.9658310406</v>
+        <v>920300.3688706552</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>962425.9658310405</v>
+        <v>920300.3688706552</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>962425.9658310406</v>
+        <v>920300.3688706552</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>962425.9658310405</v>
+        <v>920300.3688706551</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>962425.9658310406</v>
+        <v>920300.3688706551</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>962425.9658310406</v>
+        <v>920300.3688706551</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>962425.9658310408</v>
+        <v>920300.3688706553</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>962425.9658310406</v>
+        <v>920300.3688706551</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>962425.9658310405</v>
+        <v>920300.3688706551</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>962425.9658310405</v>
+        <v>920300.3688706551</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>472099.0176719631</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.0176719631</v>
+        <v>472099.017671963</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719632</v>
       </c>
       <c r="E2" t="n">
-        <v>464109.2948217535</v>
+        <v>378397.1239740619</v>
       </c>
       <c r="F2" t="n">
-        <v>464109.2948217536</v>
+        <v>378397.1239740618</v>
       </c>
       <c r="G2" t="n">
-        <v>464109.2948217536</v>
+        <v>450359.7549792567</v>
       </c>
       <c r="H2" t="n">
-        <v>464109.2948217536</v>
+        <v>450359.7549792566</v>
       </c>
       <c r="I2" t="n">
-        <v>464109.2948217536</v>
+        <v>450359.7549792567</v>
       </c>
       <c r="J2" t="n">
-        <v>464109.2948217537</v>
+        <v>450359.7549792567</v>
       </c>
       <c r="K2" t="n">
-        <v>464109.2948217538</v>
+        <v>450359.7549792567</v>
       </c>
       <c r="L2" t="n">
-        <v>464109.2948217536</v>
+        <v>450359.7549792567</v>
       </c>
       <c r="M2" t="n">
-        <v>464109.2948217536</v>
+        <v>450359.7549792567</v>
       </c>
       <c r="N2" t="n">
-        <v>464109.2948217537</v>
+        <v>450359.7549792568</v>
       </c>
       <c r="O2" t="n">
-        <v>464109.2948217537</v>
+        <v>450359.7549792565</v>
       </c>
       <c r="P2" t="n">
-        <v>464109.2948217537</v>
+        <v>450359.7549792567</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073548</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>309843.0334598204</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>82135.83059545133</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.7441040526</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.74410405259</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405259</v>
       </c>
       <c r="E4" t="n">
-        <v>14826.69604186736</v>
+        <v>584.6469890061228</v>
       </c>
       <c r="F4" t="n">
-        <v>14826.69604186736</v>
+        <v>584.6469890061228</v>
       </c>
       <c r="G4" t="n">
-        <v>14826.69604186736</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="H4" t="n">
-        <v>14826.69604186736</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="I4" t="n">
-        <v>14826.69604186736</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="J4" t="n">
-        <v>14826.69604186736</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="K4" t="n">
-        <v>14826.69604186736</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="L4" t="n">
-        <v>14826.69604186736</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="M4" t="n">
-        <v>14826.69604186736</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="N4" t="n">
-        <v>14826.69604186736</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="O4" t="n">
-        <v>14826.69604186736</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="P4" t="n">
-        <v>14826.69604186736</v>
+        <v>761.3882086835451</v>
       </c>
     </row>
     <row r="5">
@@ -26478,10 +26478,10 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-1058176.412721075</v>
       </c>
       <c r="C6" t="n">
-        <v>270568.3330065173</v>
+        <v>270568.3330065174</v>
       </c>
       <c r="D6" t="n">
         <v>270568.3330065173</v>
       </c>
       <c r="E6" t="n">
-        <v>22400.22789426731</v>
+        <v>303098.7368858457</v>
       </c>
       <c r="F6" t="n">
-        <v>347812.6897016222</v>
+        <v>303098.7368858455</v>
       </c>
       <c r="G6" t="n">
-        <v>347812.689701622</v>
+        <v>38538.28495339908</v>
       </c>
       <c r="H6" t="n">
-        <v>347812.6897016221</v>
+        <v>348381.3184132195</v>
       </c>
       <c r="I6" t="n">
-        <v>347812.6897016222</v>
+        <v>348381.3184132196</v>
       </c>
       <c r="J6" t="n">
-        <v>130281.4873043449</v>
+        <v>130850.1160159419</v>
       </c>
       <c r="K6" t="n">
-        <v>347812.6897016224</v>
+        <v>348381.3184132195</v>
       </c>
       <c r="L6" t="n">
-        <v>347812.6897016222</v>
+        <v>348381.3184132195</v>
       </c>
       <c r="M6" t="n">
-        <v>262757.6617661105</v>
+        <v>348381.3184132195</v>
       </c>
       <c r="N6" t="n">
-        <v>347812.6897016222</v>
+        <v>348381.3184132196</v>
       </c>
       <c r="O6" t="n">
-        <v>347812.6897016224</v>
+        <v>266245.4878177681</v>
       </c>
       <c r="P6" t="n">
-        <v>347812.6897016222</v>
+        <v>348381.3184132195</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27381,13 +27381,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>124.0030089910827</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,7 +27441,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>291.4251788534393</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>30.43279175475621</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27545,19 +27545,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>72.70606303671535</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27590,22 +27590,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>270.4601319683926</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27669,10 +27669,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>199.5668292471907</v>
       </c>
     </row>
     <row r="6">
@@ -27754,7 +27754,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>107.7439527351651</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>160.3027978282313</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>69.06034866652971</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>277.2566436803251</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>107.7439527351651</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>24.26439296306545</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -30474,7 +30474,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30641,7 +30641,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>-4.713266813875332e-12</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353161</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
-        <v>175.6052721551114</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>299.2156706987499</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>378.512347035317</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P15" t="n">
-        <v>171.7382405950826</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670478</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099322</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32317,7 +32317,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32329,7 +32329,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32554,10 +32554,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>175.6052721551106</v>
+        <v>248.0319961154043</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32569,7 +32569,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32791,10 +32791,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>246.9596973201446</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,10 +32803,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33040,10 +33040,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>390.1398273256871</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33207,7 +33207,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609571</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K12" t="n">
-        <v>37.76383318075244</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>159.2338966127284</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>11.94217529034283</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>99.30389319966696</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>139.3114638567572</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>99.95050783106922</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>13.05128016014211</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>240.670908060958</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P15" t="n">
-        <v>37.76383318075232</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>11.94217529034283</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>99.30389319966696</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>139.3114638567572</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>99.95050783106922</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>13.05128016014211</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35965,7 +35965,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35977,7 +35977,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36202,10 +36202,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>37.76383318075158</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36217,7 +36217,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36439,10 +36439,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>108.4053175402704</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,10 +36451,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36688,10 +36688,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>256.1654199113569</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326294864</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
